--- a/dependencies/mycobacterium/tbc/af2122/script_dependents/script2/RemoveFromAnalysis.xlsx
+++ b/dependencies/mycobacterium/tbc/af2122/script_dependents/script2/RemoveFromAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51432" yWindow="7920" windowWidth="14280" windowHeight="14592" tabRatio="500"/>
+    <workbookView xWindow="68355" yWindow="9225" windowWidth="21045" windowHeight="14745" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="219">
   <si>
     <t>13-8081</t>
   </si>
@@ -263,12 +263,6 @@
     <t>Duplicate Saginaw isolate. Milk was cultured twice.</t>
   </si>
   <si>
-    <t>05-0611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed isolate removed from analysis </t>
-  </si>
-  <si>
     <t>13-1927FM</t>
   </si>
   <si>
@@ -576,16 +570,134 @@
   </si>
   <si>
     <t>Belive this could be lab cross contamination. Cervid strain</t>
+  </si>
+  <si>
+    <t>15-3771</t>
+  </si>
+  <si>
+    <t>BCG-ARS isolate</t>
+  </si>
+  <si>
+    <t>17-7970</t>
+  </si>
+  <si>
+    <t>BCG human isolate</t>
+  </si>
+  <si>
+    <t>17-7977</t>
+  </si>
+  <si>
+    <t>BCG-FTACardExtraction</t>
+  </si>
+  <si>
+    <t>16-1405_zc</t>
+  </si>
+  <si>
+    <t>16-1396_zc</t>
+  </si>
+  <si>
+    <t>PT samples</t>
+  </si>
+  <si>
+    <t>09-0480FM_MEX_COA_Dairy</t>
+  </si>
+  <si>
+    <t>Mixed isolate that is inconsistent</t>
+  </si>
+  <si>
+    <t>18-008604-15-1606MX</t>
+  </si>
+  <si>
+    <t>18-008604-15-1607MX</t>
+  </si>
+  <si>
+    <t>18-008604-15-1806MX</t>
+  </si>
+  <si>
+    <t>18-008604-15-2007MX</t>
+  </si>
+  <si>
+    <t>18-008604-15-2081MX</t>
+  </si>
+  <si>
+    <t>18-008604-15-2178MX</t>
+  </si>
+  <si>
+    <t>18-008604-15-2201MX</t>
+  </si>
+  <si>
+    <t>18-2137</t>
+  </si>
+  <si>
+    <t>ran twice under different accession numbers --&gt; 16-036062</t>
+  </si>
+  <si>
+    <t>re-isolation of 18-0732 and matches exactly</t>
+  </si>
+  <si>
+    <t>18-3436_zc</t>
+  </si>
+  <si>
+    <t>18-3440_zc</t>
+  </si>
+  <si>
+    <t>Mixed isolate</t>
+  </si>
+  <si>
+    <t>18-0466_zc</t>
+  </si>
+  <si>
+    <t>18-0472_zc</t>
+  </si>
+  <si>
+    <t>18-0474_zc</t>
+  </si>
+  <si>
+    <t>18-0470_zc</t>
+  </si>
+  <si>
+    <t>07-7227_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7215_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7337_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7315_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7316_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7289_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7244_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7271_NL_NL_Dairy</t>
+  </si>
+  <si>
+    <t>07-7327_NL_NL_Dairy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,10 +723,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,275 +1008,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170:B175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="46.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -1171,7 +1284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -1179,62 +1292,62 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -1242,7 +1355,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -1250,71 +1363,71 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
@@ -1322,7 +1435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
@@ -1330,7 +1443,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -1338,7 +1451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
@@ -1346,7 +1459,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>98</v>
       </c>
@@ -1354,7 +1467,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>100</v>
       </c>
@@ -1362,7 +1475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -1370,7 +1483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>104</v>
       </c>
@@ -1378,199 +1491,199 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>133</v>
       </c>
@@ -1578,7 +1691,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>135</v>
       </c>
@@ -1586,7 +1699,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>137</v>
       </c>
@@ -1594,7 +1707,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>139</v>
       </c>
@@ -1602,23 +1715,23 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>144</v>
       </c>
@@ -1626,7 +1739,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>146</v>
       </c>
@@ -1634,55 +1747,55 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>174</v>
       </c>
@@ -1690,183 +1803,183 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="B131" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>178</v>
       </c>
@@ -1874,7 +1987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>180</v>
       </c>
@@ -1882,12 +1995,241 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>210</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>211</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>212</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>213</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>214</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>216</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>217</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>218</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
